--- a/monte_carlo/inputs_monte_carlo.xlsx
+++ b/monte_carlo/inputs_monte_carlo.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="656" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="656" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="13" r:id="rId1"/>
     <sheet name="case2" sheetId="14" r:id="rId2"/>
+    <sheet name="case3" sheetId="15" r:id="rId3"/>
+    <sheet name="case4" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>Ref.</t>
   </si>
@@ -521,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -639,4 +641,252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>